--- a/output/drupal/drupal-vuln-fiaf.xlsx
+++ b/output/drupal/drupal-vuln-fiaf.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>php:S2964</t>
+          <t>V-php:S2964</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,7 +502,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>php:S2068</t>
+          <t>V-php:S2068</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -533,7 +533,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>php:S2115</t>
+          <t>V-php:S2115</t>
         </is>
       </c>
       <c r="B4" t="n">
